--- a/ProcessSum.xlsx
+++ b/ProcessSum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19875" windowHeight="10605" tabRatio="850" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19875" windowHeight="10605" tabRatio="850" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Рубки" sheetId="15" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="Ведомость Зазоров" sheetId="8" r:id="rId4"/>
     <sheet name="Ведомость Скреплений" sheetId="13" r:id="rId5"/>
     <sheet name="Ведомость Болтов" sheetId="12" r:id="rId6"/>
-    <sheet name="Ненормативные объекты" sheetId="10" r:id="rId7"/>
-    <sheet name="Ведомость" sheetId="7" r:id="rId8"/>
-    <sheet name="test" sheetId="6" r:id="rId9"/>
-    <sheet name="Видео Распознование" sheetId="1" r:id="rId10"/>
-    <sheet name="Видео Распознование (&gt;20 мм)" sheetId="5" r:id="rId11"/>
-    <sheet name="FAIL_VR" sheetId="2" r:id="rId12"/>
-    <sheet name="Непроконтролированные участки" sheetId="3" r:id="rId13"/>
-    <sheet name="Изображения" sheetId="4" r:id="rId14"/>
+    <sheet name="Поверхн. дефекты" sheetId="16" r:id="rId7"/>
+    <sheet name="Ненормативные объекты" sheetId="10" r:id="rId8"/>
+    <sheet name="Ведомость" sheetId="7" r:id="rId9"/>
+    <sheet name="test" sheetId="6" r:id="rId10"/>
+    <sheet name="Видео Распознование" sheetId="1" r:id="rId11"/>
+    <sheet name="Видео Распознование (&gt;20 мм)" sheetId="5" r:id="rId12"/>
+    <sheet name="FAIL_VR" sheetId="2" r:id="rId13"/>
+    <sheet name="Непроконтролированные участки" sheetId="3" r:id="rId14"/>
+    <sheet name="Изображения" sheetId="4" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'Ведомость Болтов'!$7:$8</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="79">
   <si>
     <t xml:space="preserve">На участке $DIRECTION$,  путь $TRACK_NUM$, ПЧ - ___________, дата проезда $DATE$ . </t>
   </si>
@@ -273,12 +274,18 @@
   </si>
   <si>
     <t>_____ЖД,   ПЧ - ____,   $DIRECTION$, с км:  $FromKm$ по км:  $ToKm$, путь $TRACK_NUM$</t>
+  </si>
+  <si>
+    <t>Поверхнностных дефектов: $NAME$</t>
+  </si>
+  <si>
+    <t>Плщ. (мм2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1178,7 +1185,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1383,15 +1390,21 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="14" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="14" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1402,9 +1415,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1788,13 +1798,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
       <c r="F1" s="38"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -1810,13 +1820,13 @@
       <c r="R1" s="32"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="38"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -1947,6 +1957,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J10"/>
@@ -2059,7 +2091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -2163,7 +2195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:J10"/>
@@ -2275,7 +2307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:I10"/>
@@ -2386,7 +2418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M9"/>
   <sheetViews>
@@ -2522,33 +2554,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
       <c r="K2" s="33"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -2746,45 +2778,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
       <c r="Q1" s="85"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
       <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
@@ -2870,79 +2902,79 @@
       <c r="Q6" s="85"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="110" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="113"/>
       <c r="Q7" s="85"/>
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="1:18" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="103" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="105" t="s">
+      <c r="H8" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="107" t="s">
+      <c r="I8" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="109" t="s">
+      <c r="K8" s="103" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="103" t="s">
+      <c r="M8" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="103" t="s">
+      <c r="N8" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="103" t="s">
+      <c r="O8" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="105" t="s">
+      <c r="P8" s="107" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="85"/>
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="1:18" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="104"/>
       <c r="C9" s="104"/>
       <c r="D9" s="45" t="s">
@@ -2951,8 +2983,8 @@
       <c r="E9" s="104"/>
       <c r="F9" s="104"/>
       <c r="G9" s="104"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="110"/>
       <c r="J9" s="104"/>
       <c r="K9" s="104"/>
       <c r="L9" s="45" t="s">
@@ -2961,7 +2993,7 @@
       <c r="M9" s="104"/>
       <c r="N9" s="104"/>
       <c r="O9" s="104"/>
-      <c r="P9" s="106"/>
+      <c r="P9" s="108"/>
       <c r="Q9" s="85"/>
       <c r="R9" s="41"/>
     </row>
@@ -3047,6 +3079,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="A1:P1"/>
@@ -3063,8 +3097,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3099,47 +3131,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
       <c r="R1" s="38"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
       <c r="R2" s="38"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
@@ -3229,27 +3261,27 @@
       <c r="R6" s="38"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="119"/>
       <c r="I7" s="94"/>
-      <c r="J7" s="116" t="s">
+      <c r="J7" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="119"/>
       <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3431,7 +3463,7 @@
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -3447,17 +3479,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
       <c r="J1" s="93"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
@@ -3470,17 +3502,17 @@
       <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
       <c r="J2" s="93"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
@@ -3659,33 +3691,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
       <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
       <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
@@ -3747,20 +3779,20 @@
       <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="122" t="s">
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
       <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -3886,9 +3918,9 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3900,17 +3932,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
       <c r="J1" s="93"/>
       <c r="K1" s="73"/>
       <c r="L1" s="73"/>
@@ -3919,17 +3951,17 @@
       <c r="O1" s="73"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="A2" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
       <c r="J2" s="93"/>
       <c r="K2" s="73"/>
       <c r="L2" s="73"/>
@@ -3957,7 +3989,7 @@
       <c r="Q3" s="74"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="33"/>
       <c r="C4" s="36" t="s">
         <v>70</v>
@@ -4030,6 +4062,243 @@
         <v>31</v>
       </c>
       <c r="D7" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+    </row>
+    <row r="8" spans="1:17" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+    </row>
+    <row r="9" spans="1:17" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+    </row>
+    <row r="10" spans="1:17" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+    </row>
+    <row r="11" spans="1:17" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="31"/>
+    <col min="4" max="4" width="14.85546875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="36"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="38"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="86"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="88" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="89" t="s">
@@ -4117,7 +4386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -4138,15 +4407,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="76"/>
@@ -4316,26 +4585,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>